--- a/biology/Botanique/Acanthus_hungaricus/Acanthus_hungaricus.xlsx
+++ b/biology/Botanique/Acanthus_hungaricus/Acanthus_hungaricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthe balcanicus (syn. Acanthus hungaricus) est une plante herbacée vivace du genre Acanthus, endémique, originaire de la péninsule des Balkans, jusqu'à la Dalmatie. Elle est également cultivée dans de nombreux jardins européens et américains.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse à 80 cm de hauteur, avec des grappes de feuilles profondément lobées et coupées. Les feuilles sont vert foncé et brillantes. Les fleurs sont sur une tige florale très longue et se composent d'une lèvre inférieure et d'une lèvre supérieure en forme de dent.
 </t>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fleurit en milieu de l'été de juillet à août.
 Sur les autres projets Wikimedia :
